--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/WF0011 Cap nhat phieu nhap kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/WF0011 Cap nhat phieu nhap kho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DANGTHITIEUMAI\Products\ASOFT_ERP81\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\2015\0.ERP PROJECTS\02.Quan ly mat hang theo quy cach\ASOFT-WM\2015-06-19 Phieu nhap kho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Code Standar'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$Q$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$Q$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$K$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
@@ -1952,7 +1952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="321">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3378,6 +3378,67 @@
   <si>
     <t>Sau khi kế thừa, gán cột Số lượng  = EndQuantity</t>
   </si>
+  <si>
+    <t>Thị Phượng</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện IsWeb khi Thực thi LinkEdit</t>
+  </si>
+  <si>
+    <t>AT2006</t>
+  </si>
+  <si>
+    <t>LinkEdit</t>
+  </si>
+  <si>
+    <t>IsWeb</t>
+  </si>
+  <si>
+    <t>@SQL011</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID AND IsWeb=1</t>
+  </si>
+  <si>
+    <t>@DivisionID @VoucherID  
+@IsWeb</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@VoucherID
+1</t>
+  </si>
+  <si>
+    <t>Ver 6.0</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>WFML000186</t>
+  </si>
+  <si>
+    <t>-CustomizeIndex = 51 (Hoàng Trần) 
++ Sheet Input Check thêm WFML000186
++ Sheet Data Input Thêm @SQL009
++ Sheet Form Func Spec thêm xử lý khi sửa</t>
+  </si>
+  <si>
+    <t>Chỉ dùng Customize Hoàng Trần (CustomizeIndex = 51) Kiểm tra điều kiện nhập Web khi thực hiện sửa Phiếu nhập</t>
+  </si>
+  <si>
+    <t>CustomizeIndex = 51: Click LinkEdit  thực thi câu @SQL009 kiểm tra điều kiện IsWeb 
++ Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0011 Chỉ Enabled trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại Disabled. Click No thoát ra 
++ Nếu =0 thực thi @SQL004 load giá trị cho Form WF0011</t>
+  </si>
 </sst>
 </file>
 
@@ -3386,7 +3447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3511,6 +3572,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -3839,7 +3906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4531,6 +4598,84 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4543,7 +4688,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4696,6 +4841,15 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4738,6 +4892,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4764,6 +4936,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4785,12 +4960,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF990000"/>
       <color rgb="FF008080"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
@@ -5377,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5397,10 +5572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="301"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5422,11 +5597,13 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122"/>
+      <c r="J1" s="122" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5625,9 @@
       <c r="I2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="15">
+        <v>42381</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -5475,14 +5654,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="276" t="s">
+      <c r="E4" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5499,14 +5678,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="303" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5521,14 +5700,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="279" t="s">
+      <c r="E6" s="305" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="307"/>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="187">
@@ -5543,14 +5722,14 @@
       <c r="D7" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="282" t="s">
+      <c r="E7" s="308" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="284"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="310"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5565,14 +5744,14 @@
       <c r="D8" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="272" t="s">
+      <c r="E8" s="298" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="274"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="300"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5587,30 +5766,36 @@
       <c r="D9" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="254" t="s">
+      <c r="E9" s="280" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="255"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="256"/>
-    </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="281"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+    </row>
+    <row r="10" spans="1:10" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="112">
         <v>6</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="259"/>
+      <c r="C10" s="113">
+        <v>42381</v>
+      </c>
+      <c r="D10" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="283" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="284"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="284"/>
+      <c r="J10" s="285"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5621,12 +5806,12 @@
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="262"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="288"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -5637,12 +5822,12 @@
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="120"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="264"/>
-      <c r="J12" s="265"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="291"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -5653,12 +5838,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="267"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="267"/>
-      <c r="J13" s="268"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="294"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5669,348 +5854,348 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="270"/>
-      <c r="H14" s="270"/>
-      <c r="I14" s="270"/>
-      <c r="J14" s="271"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="297"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="279"/>
+      <c r="J20" s="279"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
+      <c r="J22" s="279"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="279"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="279"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="253"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="253"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="253"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6243,7 +6428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:H8"/>
     </sheetView>
   </sheetViews>
@@ -6262,10 +6447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="301"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6290,14 +6475,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122">
+      <c r="J1" s="122" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6324,7 +6509,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6340,76 +6525,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275" t="s">
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="275"/>
+      <c r="J4" s="301"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="288"/>
-      <c r="C5" s="288"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="293" t="s">
+      <c r="A5" s="313"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="294"/>
+      <c r="J5" s="320"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="290"/>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="295" t="s">
+      <c r="A6" s="316"/>
+      <c r="B6" s="317"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="317"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="317"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="321" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="296"/>
+      <c r="J6" s="322"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="290"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="297" t="s">
+      <c r="A7" s="316"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="298"/>
+      <c r="J7" s="324"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="290"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="285" t="s">
+      <c r="A8" s="316"/>
+      <c r="B8" s="317"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="317"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="318"/>
+      <c r="I8" s="311" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="286"/>
+      <c r="J8" s="312"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -6488,336 +6673,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="279"/>
+      <c r="J20" s="279"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
+      <c r="J22" s="279"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="279"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="279"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="253"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="253"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="253"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6874,9 +7059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6898,10 +7083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299"/>
+      <c r="B1" s="325"/>
       <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
@@ -6926,18 +7111,18 @@
       <c r="I1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="300">
+      <c r="J1" s="326" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="301"/>
+        <v>Thị Phượng</v>
+      </c>
+      <c r="K1" s="327"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="299"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="124" t="s">
         <v>7</v>
       </c>
@@ -6962,11 +7147,11 @@
       <c r="I2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="302">
+      <c r="J2" s="328">
         <f>'Update History'!J2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="303"/>
+        <v>42381</v>
+      </c>
+      <c r="K2" s="329"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -8679,7 +8864,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:J19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8697,10 +8882,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="301"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8725,14 +8910,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122">
+      <c r="J1" s="122" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8759,7 +8944,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8796,23 +8981,33 @@
       <c r="G4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="307" t="s">
+      <c r="H4" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
-      <c r="J5" s="306"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="112" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="275" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="276"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="278" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="278" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="334" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="335"/>
+      <c r="J5" s="336"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
@@ -8822,9 +9017,9 @@
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="306"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="332"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
@@ -8834,9 +9029,9 @@
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="306"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="332"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -8846,9 +9041,9 @@
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="305"/>
-      <c r="J8" s="306"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="331"/>
+      <c r="J8" s="332"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
@@ -8858,9 +9053,9 @@
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="306"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="332"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -8870,9 +9065,9 @@
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="306"/>
+      <c r="H10" s="330"/>
+      <c r="I10" s="331"/>
+      <c r="J10" s="332"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -8882,9 +9077,9 @@
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="305"/>
-      <c r="J11" s="306"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="331"/>
+      <c r="J11" s="332"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
@@ -8894,9 +9089,9 @@
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="306"/>
+      <c r="H12" s="330"/>
+      <c r="I12" s="331"/>
+      <c r="J12" s="332"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -8906,9 +9101,9 @@
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="305"/>
-      <c r="J13" s="306"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="331"/>
+      <c r="J13" s="332"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -8918,345 +9113,345 @@
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="304"/>
-      <c r="I14" s="305"/>
-      <c r="J14" s="306"/>
+      <c r="H14" s="330"/>
+      <c r="I14" s="331"/>
+      <c r="J14" s="332"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="279"/>
+      <c r="J20" s="279"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
+      <c r="J22" s="279"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="279"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="279"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="253"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="253"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="253"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -9335,10 +9530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="301"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9363,14 +9558,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122">
+      <c r="J1" s="122" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9397,20 +9592,20 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312"/>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="314"/>
+      <c r="A3" s="341"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="343"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9425,16 +9620,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="337" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="G4" s="309" t="s">
+      <c r="F4" s="337"/>
+      <c r="G4" s="338" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="311"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="340"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9561,336 +9756,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="279"/>
+      <c r="J20" s="279"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
+      <c r="J22" s="279"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="279"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="279"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="253"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="253"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="253"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9940,10 +10135,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="J13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9969,10 +10164,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="301"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9997,9 +10192,9 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="122">
+      <c r="J1" s="122" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -10010,8 +10205,8 @@
       <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10038,7 +10233,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -10049,16 +10244,16 @@
       <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312"/>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="314"/>
+      <c r="A3" s="341"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="343"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -10092,12 +10287,12 @@
       <c r="H4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="309" t="s">
+      <c r="I4" s="338" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="311"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="340"/>
       <c r="M4" s="66" t="s">
         <v>44</v>
       </c>
@@ -10131,12 +10326,12 @@
       <c r="H5" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="322" t="s">
+      <c r="I5" s="357" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="323"/>
-      <c r="K5" s="323"/>
-      <c r="L5" s="324"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="359"/>
       <c r="M5" s="160"/>
       <c r="N5" s="159"/>
       <c r="O5" s="164" t="s">
@@ -10164,12 +10359,12 @@
       <c r="H6" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="325" t="s">
+      <c r="I6" s="360" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
-      <c r="L6" s="327"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="362"/>
       <c r="M6" s="181" t="s">
         <v>230</v>
       </c>
@@ -10197,12 +10392,12 @@
       <c r="H7" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="325" t="s">
+      <c r="I7" s="360" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
-      <c r="L7" s="327"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="362"/>
       <c r="M7" s="185" t="s">
         <v>234</v>
       </c>
@@ -10230,12 +10425,12 @@
       <c r="H8" s="160" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="322" t="s">
+      <c r="I8" s="357" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="323"/>
-      <c r="K8" s="323"/>
-      <c r="L8" s="324"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="359"/>
       <c r="M8" s="153"/>
       <c r="N8" s="153"/>
       <c r="O8" s="153"/>
@@ -10259,12 +10454,12 @@
       <c r="H9" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="328" t="s">
+      <c r="I9" s="363" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="329"/>
-      <c r="K9" s="329"/>
-      <c r="L9" s="330"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="364"/>
+      <c r="L9" s="365"/>
       <c r="M9" s="198"/>
       <c r="N9" s="198"/>
       <c r="O9" s="198"/>
@@ -10288,12 +10483,12 @@
       <c r="H10" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="I10" s="316" t="s">
+      <c r="I10" s="345" t="s">
         <v>258</v>
       </c>
-      <c r="J10" s="317"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="318"/>
+      <c r="J10" s="346"/>
+      <c r="K10" s="346"/>
+      <c r="L10" s="347"/>
       <c r="M10" s="202" t="s">
         <v>259</v>
       </c>
@@ -10321,12 +10516,12 @@
       <c r="H11" s="197" t="s">
         <v>262</v>
       </c>
-      <c r="I11" s="316" t="s">
+      <c r="I11" s="345" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="317"/>
-      <c r="K11" s="317"/>
-      <c r="L11" s="318"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="347"/>
       <c r="M11" s="205" t="s">
         <v>264</v>
       </c>
@@ -10354,12 +10549,12 @@
       <c r="H12" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="316" t="s">
+      <c r="I12" s="345" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="318"/>
+      <c r="J12" s="346"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="347"/>
       <c r="M12" s="198"/>
       <c r="N12" s="198"/>
       <c r="O12" s="198"/>
@@ -10387,12 +10582,12 @@
       <c r="H13" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="I13" s="319" t="s">
+      <c r="I13" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="J13" s="320"/>
-      <c r="K13" s="320"/>
-      <c r="L13" s="321"/>
+      <c r="J13" s="349"/>
+      <c r="K13" s="349"/>
+      <c r="L13" s="350"/>
       <c r="M13" s="234" t="s">
         <v>283</v>
       </c>
@@ -10406,438 +10601,488 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="236" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="228"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="229" t="s">
+      <c r="A14" s="253"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="255" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="256" t="s">
         <v>287</v>
       </c>
-      <c r="E14" s="231" t="s">
+      <c r="E14" s="257" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="232" t="s">
+      <c r="F14" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="G14" s="232" t="s">
+      <c r="G14" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="233" t="s">
+      <c r="H14" s="258" t="s">
         <v>292</v>
       </c>
-      <c r="I14" s="319" t="s">
+      <c r="I14" s="351" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="320"/>
-      <c r="K14" s="320"/>
-      <c r="L14" s="321"/>
-      <c r="M14" s="234" t="s">
+      <c r="J14" s="352"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="353"/>
+      <c r="M14" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="N14" s="234" t="s">
+      <c r="N14" s="259" t="s">
         <v>291</v>
       </c>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
-      <c r="Q14" s="231" t="s">
+      <c r="Q14" s="257" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="315"/>
-      <c r="F15" s="315"/>
-      <c r="G15" s="315"/>
-      <c r="H15" s="315"/>
-      <c r="I15" s="315"/>
-      <c r="J15" s="315"/>
+    <row r="15" spans="1:17" s="272" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="264"/>
+      <c r="B15" s="265" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="266"/>
+      <c r="D15" s="267" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="268" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="269" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="269" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="270" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="354" t="s">
+        <v>310</v>
+      </c>
+      <c r="J15" s="355"/>
+      <c r="K15" s="355"/>
+      <c r="L15" s="356"/>
+      <c r="M15" s="271" t="s">
+        <v>311</v>
+      </c>
+      <c r="N15" s="271" t="s">
+        <v>312</v>
+      </c>
+      <c r="O15" s="269" t="s">
+        <v>307</v>
+      </c>
+      <c r="P15" s="269" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="268" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="315"/>
-      <c r="F16" s="315"/>
-      <c r="G16" s="315"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="315"/>
-      <c r="J16" s="315"/>
+      <c r="A16" s="260"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="263"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="263"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="39"/>
       <c r="C17" s="42"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="315"/>
-      <c r="F17" s="315"/>
-      <c r="G17" s="315"/>
-      <c r="H17" s="315"/>
-      <c r="I17" s="315"/>
-      <c r="J17" s="315"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
     </row>
     <row r="18" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="39"/>
       <c r="C18" s="42"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="315"/>
-      <c r="F18" s="315"/>
-      <c r="G18" s="315"/>
-      <c r="H18" s="315"/>
-      <c r="I18" s="315"/>
-      <c r="J18" s="315"/>
+      <c r="E18" s="344"/>
+      <c r="F18" s="344"/>
+      <c r="G18" s="344"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="344"/>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="39"/>
       <c r="C19" s="42"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
+      <c r="E19" s="344"/>
+      <c r="F19" s="344"/>
+      <c r="G19" s="344"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="344"/>
+      <c r="J19" s="344"/>
     </row>
     <row r="20" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="39"/>
       <c r="C20" s="42"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="315"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="315"/>
-      <c r="J20" s="315"/>
+      <c r="E20" s="344"/>
+      <c r="F20" s="344"/>
+      <c r="G20" s="344"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="344"/>
     </row>
     <row r="21" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="315"/>
+      <c r="E21" s="344"/>
+      <c r="F21" s="344"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
+      <c r="J21" s="344"/>
     </row>
     <row r="22" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="315"/>
-      <c r="J22" s="315"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="344"/>
+      <c r="G22" s="344"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="344"/>
+    </row>
+    <row r="23" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="253"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="279"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="253"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="253"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="253"/>
-      <c r="J41" s="253"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="279"/>
+      <c r="G43" s="279"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="279"/>
+      <c r="J43" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E41:J41"/>
     <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E42:J42"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E27:J27"/>
     <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E28:J28"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E18:J18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5 P13:P14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5 P13:P15">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G15">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O13:O14"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O13:O15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
@@ -10849,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10869,11 +11114,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10898,15 +11143,15 @@
       <c r="J1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="122">
+      <c r="K1" s="122" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10933,7 +11178,7 @@
       </c>
       <c r="K2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11449,19 +11694,22 @@
       <c r="J36" s="251"/>
       <c r="K36" s="251"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="17"/>
+    <row r="37" spans="1:12" s="272" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="273" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="274"/>
+      <c r="C37" s="366" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="366"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="366"/>
+      <c r="G37" s="366"/>
+      <c r="H37" s="366"/>
+      <c r="I37" s="366"/>
+      <c r="J37" s="366"/>
+      <c r="K37" s="366"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="167" t="s">
@@ -11550,12 +11798,12 @@
       <c r="C43" s="39"/>
       <c r="D43" s="42"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="315"/>
+      <c r="F43" s="344"/>
+      <c r="G43" s="344"/>
+      <c r="H43" s="344"/>
+      <c r="I43" s="344"/>
+      <c r="J43" s="344"/>
+      <c r="K43" s="344"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" s="199" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11581,12 +11829,12 @@
       <c r="C45" s="39"/>
       <c r="D45" s="42"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="315"/>
-      <c r="G45" s="315"/>
-      <c r="H45" s="315"/>
-      <c r="I45" s="315"/>
-      <c r="J45" s="315"/>
-      <c r="K45" s="315"/>
+      <c r="F45" s="344"/>
+      <c r="G45" s="344"/>
+      <c r="H45" s="344"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="344"/>
+      <c r="K45" s="344"/>
       <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11597,12 +11845,12 @@
       <c r="C46" s="39"/>
       <c r="D46" s="42"/>
       <c r="E46" s="38"/>
-      <c r="F46" s="315"/>
-      <c r="G46" s="315"/>
-      <c r="H46" s="315"/>
-      <c r="I46" s="315"/>
-      <c r="J46" s="315"/>
-      <c r="K46" s="315"/>
+      <c r="F46" s="344"/>
+      <c r="G46" s="344"/>
+      <c r="H46" s="344"/>
+      <c r="I46" s="344"/>
+      <c r="J46" s="344"/>
+      <c r="K46" s="344"/>
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" s="199" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11782,11 +12030,12 @@
       <c r="L59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F43:K43"/>
     <mergeCell ref="F45:K45"/>
     <mergeCell ref="F46:K46"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="C37:K37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
@@ -11804,7 +12053,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11823,11 +12072,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11850,9 +12099,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12222,12 +12471,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="315"/>
-      <c r="G28" s="315"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="315"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
+      <c r="F28" s="344"/>
+      <c r="G28" s="344"/>
+      <c r="H28" s="344"/>
+      <c r="I28" s="344"/>
+      <c r="J28" s="344"/>
+      <c r="K28" s="344"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12236,12 +12485,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="315"/>
-      <c r="G29" s="315"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="315"/>
-      <c r="K29" s="315"/>
+      <c r="F29" s="344"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="344"/>
+      <c r="J29" s="344"/>
+      <c r="K29" s="344"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12250,12 +12499,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="315"/>
-      <c r="G30" s="315"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="315"/>
-      <c r="J30" s="315"/>
-      <c r="K30" s="315"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="344"/>
+      <c r="I30" s="344"/>
+      <c r="J30" s="344"/>
+      <c r="K30" s="344"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,12 +12513,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="315"/>
-      <c r="G31" s="315"/>
-      <c r="H31" s="315"/>
-      <c r="I31" s="315"/>
-      <c r="J31" s="315"/>
-      <c r="K31" s="315"/>
+      <c r="F31" s="344"/>
+      <c r="G31" s="344"/>
+      <c r="H31" s="344"/>
+      <c r="I31" s="344"/>
+      <c r="J31" s="344"/>
+      <c r="K31" s="344"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12477,8 +12726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,14 +12738,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="331" t="s">
+      <c r="E2" s="367" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -12917,11 +13166,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="332" t="s">
+      <c r="E28" s="368" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="333"/>
-      <c r="G28" s="334"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="370"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
